--- a/venta_departamento_maule.xlsx
+++ b/venta_departamento_maule.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="210">
   <si>
     <t>id</t>
   </si>
@@ -25,6 +25,21 @@
     <t>Precio</t>
   </si>
   <si>
+    <t>minMet</t>
+  </si>
+  <si>
+    <t>maxMet</t>
+  </si>
+  <si>
+    <t>promM</t>
+  </si>
+  <si>
+    <t>lat</t>
+  </si>
+  <si>
+    <t>lon</t>
+  </si>
+  <si>
     <t>link</t>
   </si>
   <si>
@@ -34,33 +49,57 @@
     <t>$ 33.647.089</t>
   </si>
   <si>
+    <t>-35.39949</t>
+  </si>
+  <si>
+    <t>-71.62828</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/talca-maule/6756-valle-quinta-los-angeles-nva?tp=2&amp;op=1&amp;iug=448&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i</t>
   </si>
   <si>
+    <t>Condominio Altamira</t>
+  </si>
+  <si>
+    <t>$ 61.491.121</t>
+  </si>
+  <si>
+    <t>-35.42806</t>
+  </si>
+  <si>
+    <t>-71.67080</t>
+  </si>
+  <si>
+    <t>http://www.portalinmobiliario.com/venta/departamento/talca-maule/7258-condominio-altamira-nva?tp=2&amp;op=1&amp;iug=448&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i</t>
+  </si>
+  <si>
     <t>Portal Norte</t>
   </si>
   <si>
     <t>$ 50.177.819</t>
   </si>
   <si>
+    <t>-35.40337</t>
+  </si>
+  <si>
+    <t>-71.63892</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/talca-maule/5201-portal-norte-nva?tp=2&amp;op=1&amp;iug=448&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i</t>
   </si>
   <si>
-    <t>Condominio Altamira</t>
-  </si>
-  <si>
-    <t>$ 61.491.121</t>
-  </si>
-  <si>
-    <t>http://www.portalinmobiliario.com/venta/departamento/talca-maule/7258-condominio-altamira-nva?tp=2&amp;op=1&amp;iug=448&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i</t>
-  </si>
-  <si>
     <t>Av. Circunvalación, Boldo, Curicó</t>
   </si>
   <si>
     <t>$ 30.032.559</t>
   </si>
   <si>
+    <t>-34.97180</t>
+  </si>
+  <si>
+    <t>-71.22010</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/curico-maule/3419271-av-circunvalacion-boldo-uda?tp=2&amp;op=1&amp;iug=448&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i</t>
   </si>
   <si>
@@ -70,6 +109,12 @@
     <t>$ 31.943.439</t>
   </si>
   <si>
+    <t>-35.19912</t>
+  </si>
+  <si>
+    <t>-70.89546</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/curico-maule/3385570-avenida-circunvalacion-condominio-vina-uda?tp=2&amp;op=1&amp;iug=448&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i</t>
   </si>
   <si>
@@ -79,6 +124,12 @@
     <t>$ 32.546.122</t>
   </si>
   <si>
+    <t>-34.97040</t>
+  </si>
+  <si>
+    <t>-71.22790</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/curico-maule/3411943-avenida-circunvalacion-uda?tp=2&amp;op=1&amp;iug=448&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i</t>
   </si>
   <si>
@@ -88,6 +139,12 @@
     <t>$ 34.956.829</t>
   </si>
   <si>
+    <t>-35.41327</t>
+  </si>
+  <si>
+    <t>-71.65150</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/talca-maule/3479678-a-cuadras-de-universidad-de-talca-uda?tp=2&amp;op=1&amp;iug=448&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i</t>
   </si>
   <si>
@@ -97,6 +154,12 @@
     <t>$ 35.181.535</t>
   </si>
   <si>
+    <t>-35.44516</t>
+  </si>
+  <si>
+    <t>-71.68341</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/talca-maule/2986714-calle-6-poniente-con-25-sur-condominio-don-carlos-98-uda?tp=2&amp;op=1&amp;iug=448&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i</t>
   </si>
   <si>
@@ -106,6 +169,12 @@
     <t>$ 35.670.174</t>
   </si>
   <si>
+    <t>-35.43907</t>
+  </si>
+  <si>
+    <t>-71.64896</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/talca-maule/3519693-departamento-en-12-oriente-11-sur-uda?tp=2&amp;op=1&amp;iug=448&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i</t>
   </si>
   <si>
@@ -115,6 +184,9 @@
     <t>$ 42.059.602</t>
   </si>
   <si>
+    <t>-71.21930</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/curico-maule/3522480-av-circunvalacion-uda?tp=2&amp;op=1&amp;iug=448&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i</t>
   </si>
   <si>
@@ -124,6 +196,12 @@
     <t>$ 49.462.773</t>
   </si>
   <si>
+    <t>-35.96765</t>
+  </si>
+  <si>
+    <t>-72.31558</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/cauquenes-maule/3409800-plaza-de-armas-de-cauquenes-uda?tp=2&amp;op=1&amp;iug=448&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -133,6 +211,12 @@
     <t>$ 50.015.869</t>
   </si>
   <si>
+    <t>-35.40276</t>
+  </si>
+  <si>
+    <t>-71.63719</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/talca-maule/3497826-avenida-lircay-3395-departamento-203-l-uda?tp=2&amp;op=1&amp;iug=448&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -142,6 +226,12 @@
     <t>$ 54.003.480</t>
   </si>
   <si>
+    <t>-35.42705</t>
+  </si>
+  <si>
+    <t>-71.66810</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/talca-maule/3309059-se-arrienda-departamento-en-sector-central-de-talca-uda?tp=2&amp;op=1&amp;iug=448&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -151,6 +241,12 @@
     <t>$ 56.536.358</t>
   </si>
   <si>
+    <t>-35.42324</t>
+  </si>
+  <si>
+    <t>-71.64848</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/talca-maule/2255330-alameda-955-departamento-2113-uda?tp=2&amp;op=1&amp;iug=448&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -160,6 +256,12 @@
     <t>$ 58.562.972</t>
   </si>
   <si>
+    <t>-35.42872</t>
+  </si>
+  <si>
+    <t>-71.65911</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/talca-maule/3201825-depto-amoblado-centro-edificio-amalfi-uda?tp=2&amp;op=1&amp;iug=448&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -175,6 +277,12 @@
     <t>$ 60.106.905</t>
   </si>
   <si>
+    <t>-35.42708</t>
+  </si>
+  <si>
+    <t>-71.62712</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/talca-maule/3567551-vendo-comodo-departamento-condominio-santa-maria-uda?tp=2&amp;op=1&amp;iug=448&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -184,6 +292,12 @@
     <t>$ 60.692.535</t>
   </si>
   <si>
+    <t>-35.42694</t>
+  </si>
+  <si>
+    <t>-71.62740</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/talca-maule/3516787-vendo-departamento-para-inversionista-con-arrendatarios-condominio-santa-maria-uda?tp=2&amp;op=1&amp;iug=448&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -193,6 +307,12 @@
     <t>$ 67.569.635</t>
   </si>
   <si>
+    <t>-35.42150</t>
+  </si>
+  <si>
+    <t>-71.66620</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/talca-maule/3561406-alameda-de-talca-uda?tp=2&amp;op=1&amp;iug=448&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -202,6 +322,12 @@
     <t>$ 68.030.685</t>
   </si>
   <si>
+    <t>-35.42167</t>
+  </si>
+  <si>
+    <t>-71.66320</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/talca-maule/3237763-amplio-departamento-a-pasos-del-centro-de-talca-uda?tp=2&amp;op=1&amp;iug=448&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -211,6 +337,12 @@
     <t>$ 69.210.785</t>
   </si>
   <si>
+    <t>-35.42647</t>
+  </si>
+  <si>
+    <t>-71.65988</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/talca-maule/3045489-sector-oriente-cerca-a-u-catolica-uda?tp=2&amp;op=1&amp;iug=448&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -220,6 +352,12 @@
     <t>$ 70.049.647</t>
   </si>
   <si>
+    <t>-35.42320</t>
+  </si>
+  <si>
+    <t>-71.66008</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/talca-maule/3569348-alameda-uda?tp=2&amp;op=1&amp;iug=448&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -229,6 +367,12 @@
     <t>$ 70.099.337</t>
   </si>
   <si>
+    <t>-35.42789</t>
+  </si>
+  <si>
+    <t>-71.60223</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/talca-maule/3366197-edificio-marin-de-poveda-uda?tp=2&amp;op=1&amp;iug=448&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -238,6 +382,12 @@
     <t>$ 75.053.192</t>
   </si>
   <si>
+    <t>-35.43184</t>
+  </si>
+  <si>
+    <t>-71.66048</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/talca-maule/3569292-sector-central-uda?tp=2&amp;op=1&amp;iug=448&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -247,6 +397,12 @@
     <t>$ 75.883.187</t>
   </si>
   <si>
+    <t>-35.43185</t>
+  </si>
+  <si>
+    <t>-71.66029</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/talca-maule/3202109-depto-central-edificio-marin-de-poveda-5-oriente-esquina-5-sur-uda?tp=2&amp;op=1&amp;iug=448&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -256,6 +412,12 @@
     <t>$ 77.063.547</t>
   </si>
   <si>
+    <t>-35.42170</t>
+  </si>
+  <si>
+    <t>-71.66270</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/talca-maule/3573179-vendo-departamento-edificio-aire-urbano-uda?tp=2&amp;op=1&amp;iug=448&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -265,6 +427,12 @@
     <t>$ 80.910.711</t>
   </si>
   <si>
+    <t>-34.98663</t>
+  </si>
+  <si>
+    <t>-71.23477</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/curico-maule/2969828-departamento-2-dormit-inmejorable-ubicacion-uda?tp=2&amp;op=1&amp;iug=448&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -292,6 +460,12 @@
     <t>$ 93.168.365</t>
   </si>
   <si>
+    <t>-34.98816</t>
+  </si>
+  <si>
+    <t>-71.22902</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/curico-maule/3490718-depto-nuevo-edificio-da-vinci-uda?tp=2&amp;op=1&amp;iug=448&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -301,6 +475,12 @@
     <t>$ 120.139.297</t>
   </si>
   <si>
+    <t>-35.42428</t>
+  </si>
+  <si>
+    <t>-71.66515</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/talca-maule/3335973-hermoso-departamento-central-a-1-cuadra-de-plaza-de-armas-uda?tp=2&amp;op=1&amp;iug=448&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -310,6 +490,12 @@
     <t>$ 159.717.197</t>
   </si>
   <si>
+    <t>-34.98604</t>
+  </si>
+  <si>
+    <t>-71.22701</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/curico-maule/3152813-espana-106-uda?tp=2&amp;op=1&amp;iug=448&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -319,6 +505,12 @@
     <t>$ 199.856.647</t>
   </si>
   <si>
+    <t>-35.43573</t>
+  </si>
+  <si>
+    <t>-71.61609</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/talca-maule/3480765-san-miguel-2-norte-uda?tp=2&amp;op=1&amp;iug=448&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -328,6 +520,12 @@
     <t>$ 260.871.421</t>
   </si>
   <si>
+    <t>-35.43621</t>
+  </si>
+  <si>
+    <t>-71.61716</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/talca-maule/2920829-gran-espacio-comodidad-y-tranquilidad-en-sector-residencial-de-talca-uda?tp=2&amp;op=1&amp;iug=448&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -346,6 +544,12 @@
     <t>$ 299.469.744</t>
   </si>
   <si>
+    <t>-35.44558</t>
+  </si>
+  <si>
+    <t>-71.60446</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/talca-maule/3459933-excelente-departamento-en-las-rastras-talca-uda?tp=2&amp;op=1&amp;iug=448&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -355,6 +559,12 @@
     <t>$ 25.016.119</t>
   </si>
   <si>
+    <t>-35.43938</t>
+  </si>
+  <si>
+    <t>-71.66773</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/talca-maule/3570674-iglesia-fatima-talca-uda?tp=2&amp;op=1&amp;iug=448&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -364,12 +574,24 @@
     <t>$ 26.051.999</t>
   </si>
   <si>
+    <t>-35.33339</t>
+  </si>
+  <si>
+    <t>-72.41661</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/constitucion-maule/3534210-entre-osvaldo-galazo-y-piedra-de-la-iglesia-a-7-cuadras-de-av-sta-maria-uda?tp=2&amp;op=1&amp;iug=448&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
     <t>Av. Circunvalación, Curicó - Departamento 525A, Curicó</t>
   </si>
   <si>
+    <t>-34.97034</t>
+  </si>
+  <si>
+    <t>-71.22946</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/curico-maule/3312593-av-circunvalacion-curico-departamento-525a-uda?tp=2&amp;op=1&amp;iug=448&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -379,12 +601,24 @@
     <t>$ 82.520.552</t>
   </si>
   <si>
+    <t>-35.41912</t>
+  </si>
+  <si>
+    <t>-71.66041</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/talca-maule/3383935-cuatro-oriente-1730-uda?tp=2&amp;op=1&amp;iug=448&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
     <t>Tres Sur 1150, Talca</t>
   </si>
   <si>
+    <t>-35.42988</t>
+  </si>
+  <si>
+    <t>-71.66069</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/talca-maule/3559587-tres-sur-1150-uda?tp=2&amp;op=1&amp;iug=448&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -392,6 +626,12 @@
   </si>
   <si>
     <t>$ 11.020.580</t>
+  </si>
+  <si>
+    <t>-71.63432</t>
+  </si>
+  <si>
+    <t>summary_large_image</t>
   </si>
   <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/talca-maule/3528061-21-norte-6-oriente-block-3383-departamento-304-uda?tp=2&amp;op=1&amp;iug=448&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
@@ -744,7 +984,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D44"/>
+  <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -754,7 +994,7 @@
     <col min="3" max="3" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -767,654 +1007,1314 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>6756</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>57.42</v>
+      </c>
+      <c r="E2">
+        <v>57.63</v>
+      </c>
+      <c r="F2">
+        <v>57.52500000000001</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3">
+        <v>7258</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3">
+        <v>42.7</v>
+      </c>
+      <c r="E3">
+        <v>83</v>
+      </c>
+      <c r="F3">
+        <v>62.85</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
         <v>5201</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
-        <v>7258</v>
-      </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>20</v>
+      </c>
+      <c r="D4">
+        <v>55</v>
+      </c>
+      <c r="E4">
+        <v>65</v>
+      </c>
+      <c r="F4">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>3419271</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>25</v>
+      </c>
+      <c r="D5">
+        <v>50</v>
+      </c>
+      <c r="E5">
+        <v>50</v>
+      </c>
+      <c r="F5">
+        <v>50</v>
+      </c>
+      <c r="G5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>3385570</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>30</v>
+      </c>
+      <c r="D6">
+        <v>53</v>
+      </c>
+      <c r="E6">
+        <v>56</v>
+      </c>
+      <c r="F6">
+        <v>54.5</v>
+      </c>
+      <c r="G6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>3411943</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>35</v>
+      </c>
+      <c r="D7">
+        <v>53</v>
+      </c>
+      <c r="E7">
+        <v>53</v>
+      </c>
+      <c r="F7">
+        <v>53</v>
+      </c>
+      <c r="G7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8">
         <v>3479678</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>40</v>
+      </c>
+      <c r="D8">
+        <v>60</v>
+      </c>
+      <c r="E8">
+        <v>65</v>
+      </c>
+      <c r="F8">
+        <v>62.5</v>
+      </c>
+      <c r="G8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9">
         <v>2986714</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>45</v>
+      </c>
+      <c r="D9">
+        <v>45</v>
+      </c>
+      <c r="E9">
+        <v>45</v>
+      </c>
+      <c r="F9">
+        <v>45</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10">
         <v>3519693</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>50</v>
+      </c>
+      <c r="D10">
+        <v>45</v>
+      </c>
+      <c r="E10">
+        <v>45</v>
+      </c>
+      <c r="F10">
+        <v>45</v>
+      </c>
+      <c r="G10" t="s">
+        <v>51</v>
+      </c>
+      <c r="H10" t="s">
+        <v>52</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11">
         <v>3522480</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>55</v>
+      </c>
+      <c r="D11">
+        <v>57</v>
+      </c>
+      <c r="E11">
+        <v>57</v>
+      </c>
+      <c r="F11">
+        <v>57</v>
+      </c>
+      <c r="G11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12">
         <v>3409800</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>59</v>
+      </c>
+      <c r="D12">
+        <v>68</v>
+      </c>
+      <c r="E12">
+        <v>68</v>
+      </c>
+      <c r="F12">
+        <v>68</v>
+      </c>
+      <c r="G12" t="s">
+        <v>60</v>
+      </c>
+      <c r="H12" t="s">
+        <v>61</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13">
         <v>3497826</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>64</v>
+      </c>
+      <c r="D13">
+        <v>55.12</v>
+      </c>
+      <c r="E13">
+        <v>58.24</v>
+      </c>
+      <c r="F13">
+        <v>56.68</v>
+      </c>
+      <c r="G13" t="s">
+        <v>65</v>
+      </c>
+      <c r="H13" t="s">
+        <v>66</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14">
         <v>3309059</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>69</v>
+      </c>
+      <c r="D14">
+        <v>60</v>
+      </c>
+      <c r="E14">
+        <v>60</v>
+      </c>
+      <c r="F14">
+        <v>60</v>
+      </c>
+      <c r="G14" t="s">
+        <v>70</v>
+      </c>
+      <c r="H14" t="s">
+        <v>71</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15">
         <v>2255330</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15">
         <v>45</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15">
+        <v>45</v>
+      </c>
+      <c r="F15">
+        <v>45</v>
+      </c>
+      <c r="G15" t="s">
+        <v>75</v>
+      </c>
+      <c r="H15" t="s">
+        <v>76</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16">
         <v>3201825</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="C16" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>79</v>
+      </c>
+      <c r="D16">
+        <v>52</v>
+      </c>
+      <c r="E16">
+        <v>52</v>
+      </c>
+      <c r="F16">
+        <v>52</v>
+      </c>
+      <c r="G16" t="s">
+        <v>80</v>
+      </c>
+      <c r="H16" t="s">
+        <v>81</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17">
         <v>3380953</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="C17" t="s">
-        <v>47</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>79</v>
+      </c>
+      <c r="D17">
+        <v>52</v>
+      </c>
+      <c r="E17">
+        <v>52</v>
+      </c>
+      <c r="F17">
+        <v>52</v>
+      </c>
+      <c r="G17" t="s">
+        <v>80</v>
+      </c>
+      <c r="H17" t="s">
+        <v>81</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18">
         <v>3567551</v>
       </c>
       <c r="B18" t="s">
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="C18" t="s">
-        <v>52</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>86</v>
+      </c>
+      <c r="D18">
+        <v>73</v>
+      </c>
+      <c r="E18">
+        <v>73</v>
+      </c>
+      <c r="F18">
+        <v>73</v>
+      </c>
+      <c r="G18" t="s">
+        <v>87</v>
+      </c>
+      <c r="H18" t="s">
+        <v>88</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19">
         <v>3516787</v>
       </c>
       <c r="B19" t="s">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="C19" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>91</v>
+      </c>
+      <c r="D19">
+        <v>60</v>
+      </c>
+      <c r="E19">
+        <v>60</v>
+      </c>
+      <c r="F19">
+        <v>60</v>
+      </c>
+      <c r="G19" t="s">
+        <v>92</v>
+      </c>
+      <c r="H19" t="s">
+        <v>93</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20">
         <v>3561406</v>
       </c>
       <c r="B20" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="C20" t="s">
-        <v>58</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>96</v>
+      </c>
+      <c r="D20">
+        <v>63</v>
+      </c>
+      <c r="E20">
+        <v>65</v>
+      </c>
+      <c r="F20">
+        <v>64</v>
+      </c>
+      <c r="G20" t="s">
+        <v>97</v>
+      </c>
+      <c r="H20" t="s">
+        <v>98</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21">
         <v>3237763</v>
       </c>
       <c r="B21" t="s">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="C21" t="s">
-        <v>61</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>101</v>
+      </c>
+      <c r="D21">
+        <v>65</v>
+      </c>
+      <c r="E21">
+        <v>65</v>
+      </c>
+      <c r="F21">
+        <v>65</v>
+      </c>
+      <c r="G21" t="s">
+        <v>102</v>
+      </c>
+      <c r="H21" t="s">
+        <v>103</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22">
         <v>3045489</v>
       </c>
       <c r="B22" t="s">
-        <v>63</v>
+        <v>105</v>
       </c>
       <c r="C22" t="s">
-        <v>64</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>106</v>
+      </c>
+      <c r="D22">
+        <v>49.64</v>
+      </c>
+      <c r="E22">
+        <v>52.64</v>
+      </c>
+      <c r="F22">
+        <v>51.14</v>
+      </c>
+      <c r="G22" t="s">
+        <v>107</v>
+      </c>
+      <c r="H22" t="s">
+        <v>108</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23">
         <v>3569348</v>
       </c>
       <c r="B23" t="s">
-        <v>66</v>
+        <v>110</v>
       </c>
       <c r="C23" t="s">
-        <v>67</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>111</v>
+      </c>
+      <c r="D23">
+        <v>60</v>
+      </c>
+      <c r="E23">
+        <v>60</v>
+      </c>
+      <c r="F23">
+        <v>60</v>
+      </c>
+      <c r="G23" t="s">
+        <v>112</v>
+      </c>
+      <c r="H23" t="s">
+        <v>113</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24">
         <v>3366197</v>
       </c>
       <c r="B24" t="s">
-        <v>69</v>
+        <v>115</v>
       </c>
       <c r="C24" t="s">
-        <v>70</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>116</v>
+      </c>
+      <c r="D24">
+        <v>80</v>
+      </c>
+      <c r="E24">
+        <v>80</v>
+      </c>
+      <c r="F24">
+        <v>80</v>
+      </c>
+      <c r="G24" t="s">
+        <v>117</v>
+      </c>
+      <c r="H24" t="s">
+        <v>118</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25">
         <v>3569292</v>
       </c>
       <c r="B25" t="s">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="C25" t="s">
-        <v>73</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>121</v>
+      </c>
+      <c r="D25">
+        <v>93</v>
+      </c>
+      <c r="E25">
+        <v>93</v>
+      </c>
+      <c r="F25">
+        <v>93</v>
+      </c>
+      <c r="G25" t="s">
+        <v>122</v>
+      </c>
+      <c r="H25" t="s">
+        <v>123</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26">
         <v>3202109</v>
       </c>
       <c r="B26" t="s">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="C26" t="s">
-        <v>76</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>126</v>
+      </c>
+      <c r="D26">
+        <v>70</v>
+      </c>
+      <c r="E26">
+        <v>73</v>
+      </c>
+      <c r="F26">
+        <v>71.5</v>
+      </c>
+      <c r="G26" t="s">
+        <v>127</v>
+      </c>
+      <c r="H26" t="s">
+        <v>128</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27">
         <v>3573179</v>
       </c>
       <c r="B27" t="s">
-        <v>78</v>
+        <v>130</v>
       </c>
       <c r="C27" t="s">
-        <v>79</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+        <v>131</v>
+      </c>
+      <c r="D27">
+        <v>70</v>
+      </c>
+      <c r="E27">
+        <v>70</v>
+      </c>
+      <c r="F27">
+        <v>70</v>
+      </c>
+      <c r="G27" t="s">
+        <v>132</v>
+      </c>
+      <c r="H27" t="s">
+        <v>133</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28">
         <v>2969828</v>
       </c>
       <c r="B28" t="s">
-        <v>81</v>
+        <v>135</v>
       </c>
       <c r="C28" t="s">
-        <v>82</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>136</v>
+      </c>
+      <c r="D28">
+        <v>73</v>
+      </c>
+      <c r="E28">
+        <v>73</v>
+      </c>
+      <c r="F28">
+        <v>73</v>
+      </c>
+      <c r="G28" t="s">
+        <v>137</v>
+      </c>
+      <c r="H28" t="s">
+        <v>138</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29">
         <v>3410504</v>
       </c>
       <c r="B29" t="s">
-        <v>84</v>
+        <v>140</v>
       </c>
       <c r="C29" t="s">
-        <v>85</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>141</v>
+      </c>
+      <c r="D29">
+        <v>66</v>
+      </c>
+      <c r="E29">
+        <v>66</v>
+      </c>
+      <c r="F29">
+        <v>66</v>
+      </c>
+      <c r="G29" t="s">
+        <v>31</v>
+      </c>
+      <c r="H29" t="s">
+        <v>32</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30">
         <v>3410506</v>
       </c>
       <c r="B30" t="s">
-        <v>87</v>
+        <v>143</v>
       </c>
       <c r="C30" t="s">
-        <v>88</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>144</v>
+      </c>
+      <c r="D30">
+        <v>70</v>
+      </c>
+      <c r="E30">
+        <v>70</v>
+      </c>
+      <c r="F30">
+        <v>70</v>
+      </c>
+      <c r="G30" t="s">
+        <v>31</v>
+      </c>
+      <c r="H30" t="s">
+        <v>32</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31">
         <v>3490718</v>
       </c>
       <c r="B31" t="s">
-        <v>90</v>
+        <v>146</v>
       </c>
       <c r="C31" t="s">
-        <v>91</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>147</v>
+      </c>
+      <c r="D31">
+        <v>71</v>
+      </c>
+      <c r="E31">
+        <v>81</v>
+      </c>
+      <c r="F31">
+        <v>76</v>
+      </c>
+      <c r="G31" t="s">
+        <v>148</v>
+      </c>
+      <c r="H31" t="s">
+        <v>149</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32">
         <v>3335973</v>
       </c>
       <c r="B32" t="s">
-        <v>93</v>
+        <v>151</v>
       </c>
       <c r="C32" t="s">
-        <v>94</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>152</v>
+      </c>
+      <c r="D32">
+        <v>139</v>
+      </c>
+      <c r="E32">
+        <v>150</v>
+      </c>
+      <c r="F32">
+        <v>144.5</v>
+      </c>
+      <c r="G32" t="s">
+        <v>153</v>
+      </c>
+      <c r="H32" t="s">
+        <v>154</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33">
         <v>3152813</v>
       </c>
       <c r="B33" t="s">
-        <v>96</v>
+        <v>156</v>
       </c>
       <c r="C33" t="s">
+        <v>157</v>
+      </c>
+      <c r="D33">
         <v>97</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="E33">
+        <v>107</v>
+      </c>
+      <c r="F33">
+        <v>102</v>
+      </c>
+      <c r="G33" t="s">
+        <v>158</v>
+      </c>
+      <c r="H33" t="s">
+        <v>159</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34">
         <v>3480765</v>
       </c>
       <c r="B34" t="s">
-        <v>99</v>
+        <v>161</v>
       </c>
       <c r="C34" t="s">
-        <v>100</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>162</v>
+      </c>
+      <c r="D34">
+        <v>147</v>
+      </c>
+      <c r="E34">
+        <v>167</v>
+      </c>
+      <c r="F34">
+        <v>157</v>
+      </c>
+      <c r="G34" t="s">
+        <v>163</v>
+      </c>
+      <c r="H34" t="s">
+        <v>164</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35">
         <v>2920829</v>
       </c>
       <c r="B35" t="s">
-        <v>102</v>
+        <v>166</v>
       </c>
       <c r="C35" t="s">
-        <v>103</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>167</v>
+      </c>
+      <c r="D35">
+        <v>217</v>
+      </c>
+      <c r="E35">
+        <v>217</v>
+      </c>
+      <c r="F35">
+        <v>217</v>
+      </c>
+      <c r="G35" t="s">
+        <v>168</v>
+      </c>
+      <c r="H35" t="s">
+        <v>169</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36">
         <v>3362435</v>
       </c>
       <c r="B36" t="s">
-        <v>105</v>
+        <v>171</v>
       </c>
       <c r="C36" t="s">
-        <v>106</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>172</v>
+      </c>
+      <c r="D36">
+        <v>217</v>
+      </c>
+      <c r="E36">
+        <v>245</v>
+      </c>
+      <c r="F36">
+        <v>231</v>
+      </c>
+      <c r="G36" t="s">
+        <v>112</v>
+      </c>
+      <c r="H36" t="s">
+        <v>113</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37">
         <v>3459933</v>
       </c>
       <c r="B37" t="s">
-        <v>108</v>
+        <v>174</v>
       </c>
       <c r="C37" t="s">
-        <v>109</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>175</v>
+      </c>
+      <c r="D37">
+        <v>204</v>
+      </c>
+      <c r="E37">
+        <v>249</v>
+      </c>
+      <c r="F37">
+        <v>226.5</v>
+      </c>
+      <c r="G37" t="s">
+        <v>176</v>
+      </c>
+      <c r="H37" t="s">
+        <v>177</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38">
         <v>3570674</v>
       </c>
       <c r="B38" t="s">
-        <v>111</v>
+        <v>179</v>
       </c>
       <c r="C38" t="s">
-        <v>112</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>180</v>
+      </c>
+      <c r="D38">
+        <v>36</v>
+      </c>
+      <c r="E38">
+        <v>43</v>
+      </c>
+      <c r="F38">
+        <v>39.5</v>
+      </c>
+      <c r="G38" t="s">
+        <v>181</v>
+      </c>
+      <c r="H38" t="s">
+        <v>182</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39">
         <v>3534210</v>
       </c>
       <c r="B39" t="s">
-        <v>114</v>
+        <v>184</v>
       </c>
       <c r="C39" t="s">
-        <v>115</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>185</v>
+      </c>
+      <c r="D39">
+        <v>51</v>
+      </c>
+      <c r="E39">
+        <v>51</v>
+      </c>
+      <c r="F39">
+        <v>51</v>
+      </c>
+      <c r="G39" t="s">
+        <v>186</v>
+      </c>
+      <c r="H39" t="s">
+        <v>187</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40">
         <v>3312593</v>
       </c>
       <c r="B40" t="s">
-        <v>117</v>
+        <v>189</v>
       </c>
       <c r="C40" t="s">
-        <v>17</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>30</v>
+      </c>
+      <c r="D40">
+        <v>53.17</v>
+      </c>
+      <c r="E40">
+        <v>55.6</v>
+      </c>
+      <c r="F40">
+        <v>54.38500000000001</v>
+      </c>
+      <c r="G40" t="s">
+        <v>190</v>
+      </c>
+      <c r="H40" t="s">
+        <v>191</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41">
         <v>3383935</v>
       </c>
       <c r="B41" t="s">
-        <v>119</v>
+        <v>193</v>
       </c>
       <c r="C41" t="s">
-        <v>120</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>194</v>
+      </c>
+      <c r="D41">
+        <v>70</v>
+      </c>
+      <c r="E41">
+        <v>12</v>
+      </c>
+      <c r="F41">
+        <v>41</v>
+      </c>
+      <c r="G41" t="s">
+        <v>195</v>
+      </c>
+      <c r="H41" t="s">
+        <v>196</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42">
         <v>3559587</v>
       </c>
       <c r="B42" t="s">
-        <v>122</v>
+        <v>198</v>
       </c>
       <c r="C42" t="s">
-        <v>91</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>147</v>
+      </c>
+      <c r="D42">
+        <v>10</v>
+      </c>
+      <c r="E42">
+        <v>10</v>
+      </c>
+      <c r="F42">
+        <v>10</v>
+      </c>
+      <c r="G42" t="s">
+        <v>199</v>
+      </c>
+      <c r="H42" t="s">
+        <v>200</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43">
         <v>3528061</v>
       </c>
       <c r="B43" t="s">
-        <v>124</v>
+        <v>202</v>
       </c>
       <c r="C43" t="s">
-        <v>125</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>203</v>
+      </c>
+      <c r="D43">
+        <v>60</v>
+      </c>
+      <c r="E43">
+        <v>60</v>
+      </c>
+      <c r="F43">
+        <v>60</v>
+      </c>
+      <c r="G43" t="s">
+        <v>204</v>
+      </c>
+      <c r="H43" t="s">
+        <v>205</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44">
         <v>3220193</v>
       </c>
       <c r="B44" t="s">
-        <v>127</v>
+        <v>207</v>
       </c>
       <c r="C44" t="s">
-        <v>128</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>129</v>
+        <v>208</v>
+      </c>
+      <c r="D44">
+        <v>45</v>
+      </c>
+      <c r="E44">
+        <v>62</v>
+      </c>
+      <c r="F44">
+        <v>53.5</v>
+      </c>
+      <c r="G44" t="s">
+        <v>76</v>
+      </c>
+      <c r="H44" t="s">
+        <v>205</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>209</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="D3" r:id="rId2"/>
-    <hyperlink ref="D4" r:id="rId3"/>
-    <hyperlink ref="D5" r:id="rId4"/>
-    <hyperlink ref="D6" r:id="rId5"/>
-    <hyperlink ref="D7" r:id="rId6"/>
-    <hyperlink ref="D8" r:id="rId7"/>
-    <hyperlink ref="D9" r:id="rId8"/>
-    <hyperlink ref="D10" r:id="rId9"/>
-    <hyperlink ref="D11" r:id="rId10"/>
-    <hyperlink ref="D12" r:id="rId11"/>
-    <hyperlink ref="D13" r:id="rId12"/>
-    <hyperlink ref="D14" r:id="rId13"/>
-    <hyperlink ref="D15" r:id="rId14"/>
-    <hyperlink ref="D16" r:id="rId15"/>
-    <hyperlink ref="D17" r:id="rId16"/>
-    <hyperlink ref="D18" r:id="rId17"/>
-    <hyperlink ref="D19" r:id="rId18"/>
-    <hyperlink ref="D20" r:id="rId19"/>
-    <hyperlink ref="D21" r:id="rId20"/>
-    <hyperlink ref="D22" r:id="rId21"/>
-    <hyperlink ref="D23" r:id="rId22"/>
-    <hyperlink ref="D24" r:id="rId23"/>
-    <hyperlink ref="D25" r:id="rId24"/>
-    <hyperlink ref="D26" r:id="rId25"/>
-    <hyperlink ref="D27" r:id="rId26"/>
-    <hyperlink ref="D28" r:id="rId27"/>
-    <hyperlink ref="D29" r:id="rId28"/>
-    <hyperlink ref="D30" r:id="rId29"/>
-    <hyperlink ref="D31" r:id="rId30"/>
-    <hyperlink ref="D32" r:id="rId31"/>
-    <hyperlink ref="D33" r:id="rId32"/>
-    <hyperlink ref="D34" r:id="rId33"/>
-    <hyperlink ref="D35" r:id="rId34"/>
-    <hyperlink ref="D36" r:id="rId35"/>
-    <hyperlink ref="D37" r:id="rId36"/>
-    <hyperlink ref="D38" r:id="rId37"/>
-    <hyperlink ref="D39" r:id="rId38"/>
-    <hyperlink ref="D40" r:id="rId39"/>
-    <hyperlink ref="D41" r:id="rId40"/>
-    <hyperlink ref="D42" r:id="rId41"/>
-    <hyperlink ref="D43" r:id="rId42"/>
-    <hyperlink ref="D44" r:id="rId43"/>
+    <hyperlink ref="I2" r:id="rId1"/>
+    <hyperlink ref="I3" r:id="rId2"/>
+    <hyperlink ref="I4" r:id="rId3"/>
+    <hyperlink ref="I5" r:id="rId4"/>
+    <hyperlink ref="I6" r:id="rId5"/>
+    <hyperlink ref="I7" r:id="rId6"/>
+    <hyperlink ref="I8" r:id="rId7"/>
+    <hyperlink ref="I9" r:id="rId8"/>
+    <hyperlink ref="I10" r:id="rId9"/>
+    <hyperlink ref="I11" r:id="rId10"/>
+    <hyperlink ref="I12" r:id="rId11"/>
+    <hyperlink ref="I13" r:id="rId12"/>
+    <hyperlink ref="I14" r:id="rId13"/>
+    <hyperlink ref="I15" r:id="rId14"/>
+    <hyperlink ref="I16" r:id="rId15"/>
+    <hyperlink ref="I17" r:id="rId16"/>
+    <hyperlink ref="I18" r:id="rId17"/>
+    <hyperlink ref="I19" r:id="rId18"/>
+    <hyperlink ref="I20" r:id="rId19"/>
+    <hyperlink ref="I21" r:id="rId20"/>
+    <hyperlink ref="I22" r:id="rId21"/>
+    <hyperlink ref="I23" r:id="rId22"/>
+    <hyperlink ref="I24" r:id="rId23"/>
+    <hyperlink ref="I25" r:id="rId24"/>
+    <hyperlink ref="I26" r:id="rId25"/>
+    <hyperlink ref="I27" r:id="rId26"/>
+    <hyperlink ref="I28" r:id="rId27"/>
+    <hyperlink ref="I29" r:id="rId28"/>
+    <hyperlink ref="I30" r:id="rId29"/>
+    <hyperlink ref="I31" r:id="rId30"/>
+    <hyperlink ref="I32" r:id="rId31"/>
+    <hyperlink ref="I33" r:id="rId32"/>
+    <hyperlink ref="I34" r:id="rId33"/>
+    <hyperlink ref="I35" r:id="rId34"/>
+    <hyperlink ref="I36" r:id="rId35"/>
+    <hyperlink ref="I37" r:id="rId36"/>
+    <hyperlink ref="I38" r:id="rId37"/>
+    <hyperlink ref="I39" r:id="rId38"/>
+    <hyperlink ref="I40" r:id="rId39"/>
+    <hyperlink ref="I41" r:id="rId40"/>
+    <hyperlink ref="I42" r:id="rId41"/>
+    <hyperlink ref="I43" r:id="rId42"/>
+    <hyperlink ref="I44" r:id="rId43"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
